--- a/Data Collection/Persons/Luisa Neubauer/Luisa_Neubauer_all.xlsx
+++ b/Data Collection/Persons/Luisa Neubauer/Luisa_Neubauer_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Persons\Luisa Neubauer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phildickson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E1B7F-995C-4129-9E38-E2FB8D57091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9E785-ACBB-EE4E-AE8A-1AFB07C3ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="427">
   <si>
     <t>title</t>
   </si>
@@ -1573,6 +1573,9 @@
   <si>
     <t>Klima-Politik: Luisa Neubauer nimmt Armin Laschet in die Mangel10.05.2021 10:27 UhrDie Klimaaktivistin Luisa Neubauer hat die Klimapolitik der Union bei „Anne Will“ heftig kritisiert.
 Der Kanzlerkandidat der Union, Armin Laschet, kontert – teilweise.</t>
+  </si>
+  <si>
+    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1638,18 +1641,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1931,15 +1948,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,8 +1981,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1991,7 +2011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2043,7 +2063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2069,7 +2089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2121,7 +2141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2147,7 +2167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2271,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2349,7 +2369,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2375,7 +2395,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2427,7 +2447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2450,7 +2470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2502,7 +2522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2528,7 +2548,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2554,7 +2574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2606,7 +2626,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2632,7 +2652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2684,7 +2704,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2710,7 +2730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2733,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2811,7 +2831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2837,7 +2857,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2863,7 +2883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2915,7 +2935,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2941,7 +2961,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2967,7 +2987,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3019,7 +3039,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3097,7 +3117,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3123,7 +3143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3149,7 +3169,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3175,7 +3195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3227,7 +3247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3279,7 +3299,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3305,7 +3325,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3354,7 +3374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3458,7 +3478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3510,7 +3530,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3536,7 +3556,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3562,7 +3582,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3640,7 +3660,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3692,7 +3712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3718,7 +3738,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3744,7 +3764,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3874,7 +3894,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3900,7 +3920,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3926,7 +3946,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3978,7 +3998,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4004,7 +4024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4030,7 +4050,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4059,7 +4079,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4117,7 +4137,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4146,7 +4166,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4175,7 +4195,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4204,7 +4224,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4233,7 +4253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4262,7 +4282,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4291,7 +4311,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
